--- a/MonsterManual.xlsx
+++ b/MonsterManual.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="576" yWindow="348" windowWidth="20724" windowHeight="9756"/>
+    <workbookView xWindow="576" yWindow="348" windowWidth="20724" windowHeight="9756" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Skeleton" sheetId="2" r:id="rId1"/>
+    <sheet name="Elk" sheetId="1" r:id="rId1"/>
     <sheet name="Minotaur Skeleton" sheetId="3" r:id="rId2"/>
-    <sheet name="Elk" sheetId="1" r:id="rId3"/>
+    <sheet name="Satyr" sheetId="5" r:id="rId3"/>
+    <sheet name="Skeleton" sheetId="2" r:id="rId4"/>
+    <sheet name="Sprite" sheetId="7" r:id="rId5"/>
+    <sheet name="Wight" sheetId="6" r:id="rId6"/>
+    <sheet name="Will-O'-Wisp" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="108">
   <si>
     <t>Elk</t>
   </si>
@@ -114,15 +118,6 @@
     <t>perception 9</t>
   </si>
   <si>
-    <t>(2d10 + 2)</t>
-  </si>
-  <si>
-    <t>(2d8 + 4)</t>
-  </si>
-  <si>
-    <t>(9d10 + 18)</t>
-  </si>
-  <si>
     <t>understands Abyssal but can't speak</t>
   </si>
   <si>
@@ -181,6 +176,174 @@
   </si>
   <si>
     <t>Ram x6</t>
+  </si>
+  <si>
+    <t>Satyr</t>
+  </si>
+  <si>
+    <t>Medium Fey, chaotic neutral</t>
+  </si>
+  <si>
+    <t>0.5 (100 XP)</t>
+  </si>
+  <si>
+    <t>perception 12</t>
+  </si>
+  <si>
+    <t>Common, Elvish, Sylvan</t>
+  </si>
+  <si>
+    <t>Ram x4</t>
+  </si>
+  <si>
+    <t>Sleep x1</t>
+  </si>
+  <si>
+    <t>Charm Person x1</t>
+  </si>
+  <si>
+    <t>Panpipes</t>
+  </si>
+  <si>
+    <t>Strike x3</t>
+  </si>
+  <si>
+    <t>Shoot x1</t>
+  </si>
+  <si>
+    <t>Hideous Laughter x1</t>
+  </si>
+  <si>
+    <t>Example Deck (Enraged)</t>
+  </si>
+  <si>
+    <t>Will-o'-Wisp</t>
+  </si>
+  <si>
+    <t>Tiny undead, chaotic evil</t>
+  </si>
+  <si>
+    <t>50 ft. flying</t>
+  </si>
+  <si>
+    <t>the languages it knew in life</t>
+  </si>
+  <si>
+    <t>lightning, poison</t>
+  </si>
+  <si>
+    <t>Resistances</t>
+  </si>
+  <si>
+    <t>acid, cold, fire, necrotic, thunder; bludgeoning, piercing, and slashing from nonmagical attacks</t>
+  </si>
+  <si>
+    <t>Condition Immunities</t>
+  </si>
+  <si>
+    <t>exhaustion, grappled, paralyzed, poisoned, prone, restrained, unconscious</t>
+  </si>
+  <si>
+    <t>Shocking Grasp x4</t>
+  </si>
+  <si>
+    <t>Invisibility x2</t>
+  </si>
+  <si>
+    <t>Dodge x4</t>
+  </si>
+  <si>
+    <t>Dodge x6</t>
+  </si>
+  <si>
+    <t>Sprite</t>
+  </si>
+  <si>
+    <t>Tiny fey, neutral good</t>
+  </si>
+  <si>
+    <t>40 ft. flying</t>
+  </si>
+  <si>
+    <t>Longsword (piercing)</t>
+  </si>
+  <si>
+    <t>Longsword</t>
+  </si>
+  <si>
+    <t>Strike+ x2</t>
+  </si>
+  <si>
+    <t>Block x1</t>
+  </si>
+  <si>
+    <t>Shoot x3</t>
+  </si>
+  <si>
+    <t>Parry x1</t>
+  </si>
+  <si>
+    <t>Wight</t>
+  </si>
+  <si>
+    <t>perception 13</t>
+  </si>
+  <si>
+    <t>Medium undead, neutral evil</t>
+  </si>
+  <si>
+    <t>Studded Leather</t>
+  </si>
+  <si>
+    <t>Strike x4</t>
+  </si>
+  <si>
+    <t>Shoot x8</t>
+  </si>
+  <si>
+    <t>Longbow (piercing)</t>
+  </si>
+  <si>
+    <t>3 (700 XP)</t>
+  </si>
+  <si>
+    <t>poison</t>
+  </si>
+  <si>
+    <t>exhaustion, poisoned</t>
+  </si>
+  <si>
+    <t>all the languages it knew in life</t>
+  </si>
+  <si>
+    <t>Sunlight Sensitivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -6 to Strength score, -4 to Wisdom score in sunlight</t>
+  </si>
+  <si>
+    <t>Life Drain x4</t>
+  </si>
+  <si>
+    <t>Life Drain x2</t>
+  </si>
+  <si>
+    <t>Example Deck (Sunlight)</t>
+  </si>
+  <si>
+    <t>Life Drain x3</t>
+  </si>
+  <si>
+    <t>necrotic; bludgeoning, piercing, and slashing from nonmagical, nonsilvered attacks</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Spark of Unlife</t>
+  </si>
+  <si>
+    <t>The more cards in the wisp's hand, the brighter it glows. It may extinguish itself with a General Action by discarding its hand.</t>
   </si>
 </sst>
 </file>
@@ -543,8 +706,615 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -613,9 +1383,6 @@
       <c r="B7">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
@@ -627,7 +1394,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -675,31 +1442,31 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -712,7 +1479,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -724,24 +1491,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -769,22 +1539,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
         <v>18</v>
       </c>
-      <c r="B5">
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
         <v>11</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -792,10 +1562,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>67</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -803,15 +1570,15 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -819,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -827,100 +1594,112 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -928,27 +1707,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -976,22 +1755,22 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
         <v>16</v>
       </c>
-      <c r="B5">
+      <c r="D5">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
       <c r="E5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -999,10 +1778,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1010,71 +1786,361 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>53</v>
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
